--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r3451233\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r3451233\mobile-mo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18030" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="詢議價資料" sheetId="2" r:id="rId1"/>
@@ -22,18 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8087" uniqueCount="5553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8287" uniqueCount="5753">
   <si>
     <t>契約項目編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>契約項目名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>單價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接線2 mm2及以下</t>
@@ -16660,39 +16660,765 @@
   </si>
   <si>
     <t>Y6N10C0001A0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y6N10C1007G0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y6N10C3003A0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y6N10E1001A0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接線2 mm2及以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接線 400~500  mm2 (含500mm2以上)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高壓馬達接線包紮  5KV/8KV 1/C  50mm2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中間接線2 mm2及以下 (含熱縮套管)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高壓交連ＰＥ電纜末端處理及接線 (熱縮式或預鑄式)  5KV/8KV  50~120mm2*1C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0901A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔直徑3/4"以下電纜直穿或3/4"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0902A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔1"~1 1/2"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0903A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔2"~2 1/2"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0904A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔3"~3 1/2管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0905A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔4"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0906A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔5"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0907A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔6"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0908A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔7"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0909A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磚混凝土厚度≦30公分鑽孔8"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0910A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔直徑3/4"以下電纜直穿或3/4"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0911A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔1"~1 1/2"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0912A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔2"~2 1/2"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0913A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔3"~3 1/2"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0914A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔4"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0915A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔5"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0916A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔6"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0917A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔7"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0918A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30公分＜磚混凝土厚度≦45公分鑽孔8"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0919A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔直徑3/4"以下電纜直穿或3/4"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0920A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔1"~1 1/2"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0921A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔2"~2 1/2"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0922A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔3"~3 1/2"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0923A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔4"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0924A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔5"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0925A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔6"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0926A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔7"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0927A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45公分＜磚混凝土厚度≦60公分鑽孔8"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0928A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔直徑3/4"以下電纜直穿或3/4"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0929A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔1"~1 1/2"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0930A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔2"~2 1/2"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0931A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔3"~3 1/2"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0932A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔4"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0933A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔5"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0934A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔6"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0935A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔7"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0936A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60公分＜磚混凝土厚度≦80公分鑽孔8"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0937A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔直徑3/4"以下電纜直穿或3/4"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0938A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔1"~1 1/2"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0939A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔2"~2 1/2"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0940A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔3"~3 1/2"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0941A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔4"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0942A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔5"管用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10O0943A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔6"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0944A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔7"管用</t>
+  </si>
+  <si>
+    <t>Y6N10O0945A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80公分＜磚混凝土厚度≦100公分鑽孔8"管用</t>
+  </si>
+  <si>
+    <t>Y6N10Z0901A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四用氣體偵測器租用</t>
+  </si>
+  <si>
+    <t>Y6N10Z0902A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空氣呼吸器租用</t>
+  </si>
+  <si>
+    <t>Y6N10Z0903A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧氣甦醒器租用</t>
+  </si>
+  <si>
+    <t>Y6N10Z0904A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>局限空間用通風機租用</t>
+  </si>
+  <si>
+    <t>Y6N10Z0905A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>局限空間用救援捲揚機租用</t>
+  </si>
+  <si>
+    <t>Y6N10Z0906A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>侷限空間用基本型救命器</t>
+  </si>
+  <si>
+    <t>Y6N10Z0907A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全網吊掛(含吊掛點固定)(含環境 加成)</t>
+  </si>
+  <si>
+    <t>Y6N10Z0908A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全母索吊掛及拆卸(含環境加成)</t>
+  </si>
+  <si>
+    <t>Y6N10Z0909A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電動抽水機(含配合人工1名, 供電源, 以半日為計價單位) 出水口 2"</t>
+  </si>
+  <si>
+    <t>Y6N10Z0910A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電動抽水機(含配合人工1名, 供電源, 以半日為計價單位) 出水口 3"</t>
+  </si>
+  <si>
+    <t>Y6N10Z0911A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>電動抽水機(含配合人工1名, 供電源, 以半日為計價單位) 出水口 4"</t>
+  </si>
+  <si>
+    <t>Y6N10Z0912A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽(柴)油抽水機(含配合人工1名及油料, 以半日為計價單位) 出水口 2"</t>
+  </si>
+  <si>
+    <t>Y6N10Z0913A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽(柴)油抽水機(含配合人工1名及油料, 以半日為計價單位) 出水口 3"</t>
+  </si>
+  <si>
+    <t>Y6N10Z0914A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽(柴)油抽水機(含配合人工1名及油料, 以半日為計價單位) 出水口 4"</t>
+  </si>
+  <si>
+    <t>Y6N10Z1904A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀式 4.5~5.0m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1905A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀式 6.0~6.6m 載重量：340kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1906A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀式 7.5~8.0m 載重量：454kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1907A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀式 9.5~10m 載重量：245kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1908A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲臂式 13.5~14.0m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1909A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲臂式 18.0~18.5m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1910A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直臂式 12.0~13.0m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1911A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直臂式 13.5~14.0m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1912A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直臂式 17.5~19.5m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1913A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直臂式 19.5~21.5m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1914A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直臂式 24.0~24.5m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1915A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直臂式 25.0~26.0m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1917A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直臂式 37.0~38.0m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1918A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直臂式 41.0-41.5m 載重量：227kg</t>
+  </si>
+  <si>
+    <t>Y6N10Z1919A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高空工作車(個人液壓式、剪刀式)運費 (單趟車次)</t>
+  </si>
+  <si>
+    <t>Y6N10Z1920A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高空工作車(曲臂式、直臂式)運費 (單趟車次)</t>
+  </si>
+  <si>
+    <t>Y6N10Z2901A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>屋面安全走道踏板 (寬20cm厚3.5cm長3.6m踏板2塊，寬1.5cm厚3cm長40cm止滑條、間距30cm)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10Z2902A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>單管式施工架(符合CNS4750)或系統式施工架 (附踏板步(爬)梯裝置,連續搭設高度＜31M,含搬運、吊車等相關機具租用)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10Z2903A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>單管式施工架(符合CNS4750)或系統式施工架 (附踏板步(爬)梯裝置,31M≦連續搭設高度＜50M,含搬運、吊車等相關機具租用)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10Z2904A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>懸空式施工架(符合CNS4750單管式施工架或系統式施工架) (連續搭設高度≦20M)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10Z3901A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工架結構荷重設計資料</t>
+  </si>
+  <si>
+    <t>Y6N10Z4901A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全衛生監督人員(含甲業、乙業、丙業)</t>
+  </si>
+  <si>
+    <t>Y6N10Z4902A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安衛人員及作業主管(一)</t>
+  </si>
+  <si>
+    <t>Y6N10Z4903A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>監火、警戒、急救人員(含扶梯人員)</t>
+  </si>
+  <si>
+    <t>Y6N10Z4904A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>師級設備維修(集團公司)  借調師級(集團公司)一人工作一時</t>
+  </si>
+  <si>
+    <t>Y6N10Z4905A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>師級設備維修(集團公司)  借調師級(集團公司)一人工作一天</t>
+  </si>
+  <si>
+    <t>Y6N10Z4906I0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>師級設備維修(集團公司)  借調師級(集團公司)一人加班一時</t>
+  </si>
+  <si>
+    <t>Y6N10Z4907A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>員級設備維修(集團公司)  借調員級(集團公司)一人工作一時</t>
+  </si>
+  <si>
+    <t>Y6N10Z4908A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>員級設備維修(集團公司)  借調員級(集團公司)一人工作一天</t>
+  </si>
+  <si>
+    <t>Y6N10Z4909I0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>員級設備維修(集團公司)  借調員級(集團公司)一人加班一時</t>
+  </si>
+  <si>
+    <t>Y6N10Z4910A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>員級設備維修(外包)  借調員級(外包)一人工作一時</t>
+  </si>
+  <si>
+    <t>Y6N10Z4911A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>員級設備維修(外包)  借調員級(外包)一人工作一天</t>
+  </si>
+  <si>
+    <t>Y6N10Z4912I0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>員級設備維修(外包)  借調員級(外包)一人加班一時</t>
+  </si>
+  <si>
+    <t>Y6N10Z4913A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>春節出勤津貼/一人一天</t>
+  </si>
+  <si>
+    <t>Y6N10Z4914A0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然災害放假出勤津貼/一人一天</t>
+  </si>
+  <si>
+    <t>Y6N10Z4915A0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中班輪班津貼(夜點費)/一人工作一時</t>
+  </si>
+  <si>
+    <t>Y6N10Z4916A0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中班輪班津貼(夜點費)/一人工作一天</t>
+  </si>
+  <si>
+    <t>Y6N10Z4917A0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夜班輪班津貼(夜點費)/一人工作一時</t>
+  </si>
+  <si>
+    <t>Y6N10Z4918A0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夜班輪班津貼(夜點費)/一人工作一天</t>
+  </si>
+  <si>
+    <t>Y6N10Z4919A0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例假日出勤加成/一人工作一天(限突發狀況適用) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6N10Z4920A0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練與工安活動費用</t>
   </si>
 </sst>
 </file>
@@ -16702,7 +17428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -16712,10 +17438,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -16756,12 +17511,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16782,9 +17540,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 6 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17086,16 +17852,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4043"/>
+  <dimension ref="A1:C4143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4032" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4037" sqref="B4037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="109.75" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -61572,8 +62338,1108 @@
         <v>848.9</v>
       </c>
     </row>
+    <row r="4044" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4044" s="8" t="s">
+        <v>5553</v>
+      </c>
+      <c r="B4044" s="9" t="s">
+        <v>5554</v>
+      </c>
+      <c r="C4044" s="3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4045" s="8" t="s">
+        <v>5555</v>
+      </c>
+      <c r="B4045" s="9" t="s">
+        <v>5556</v>
+      </c>
+      <c r="C4045" s="3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4046" s="8" t="s">
+        <v>5557</v>
+      </c>
+      <c r="B4046" s="9" t="s">
+        <v>5558</v>
+      </c>
+      <c r="C4046" s="3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4047" s="8" t="s">
+        <v>5559</v>
+      </c>
+      <c r="B4047" s="9" t="s">
+        <v>5560</v>
+      </c>
+      <c r="C4047" s="3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4048" s="8" t="s">
+        <v>5561</v>
+      </c>
+      <c r="B4048" s="9" t="s">
+        <v>5562</v>
+      </c>
+      <c r="C4048" s="3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4049" s="8" t="s">
+        <v>5563</v>
+      </c>
+      <c r="B4049" s="9" t="s">
+        <v>5564</v>
+      </c>
+      <c r="C4049" s="3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4050" s="8" t="s">
+        <v>5565</v>
+      </c>
+      <c r="B4050" s="9" t="s">
+        <v>5566</v>
+      </c>
+      <c r="C4050" s="3">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4051" s="8" t="s">
+        <v>5567</v>
+      </c>
+      <c r="B4051" s="9" t="s">
+        <v>5568</v>
+      </c>
+      <c r="C4051" s="3">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4052" s="8" t="s">
+        <v>5569</v>
+      </c>
+      <c r="B4052" s="9" t="s">
+        <v>5570</v>
+      </c>
+      <c r="C4052" s="3">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4053" s="8" t="s">
+        <v>5571</v>
+      </c>
+      <c r="B4053" s="9" t="s">
+        <v>5572</v>
+      </c>
+      <c r="C4053" s="3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4054" s="8" t="s">
+        <v>5573</v>
+      </c>
+      <c r="B4054" s="9" t="s">
+        <v>5574</v>
+      </c>
+      <c r="C4054" s="3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4055" s="8" t="s">
+        <v>5575</v>
+      </c>
+      <c r="B4055" s="9" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C4055" s="3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4056" s="8" t="s">
+        <v>5577</v>
+      </c>
+      <c r="B4056" s="9" t="s">
+        <v>5578</v>
+      </c>
+      <c r="C4056" s="3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4057" s="8" t="s">
+        <v>5579</v>
+      </c>
+      <c r="B4057" s="9" t="s">
+        <v>5580</v>
+      </c>
+      <c r="C4057" s="3">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4058" s="8" t="s">
+        <v>5581</v>
+      </c>
+      <c r="B4058" s="9" t="s">
+        <v>5582</v>
+      </c>
+      <c r="C4058" s="3">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4059" s="8" t="s">
+        <v>5583</v>
+      </c>
+      <c r="B4059" s="9" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C4059" s="3">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4060" s="8" t="s">
+        <v>5585</v>
+      </c>
+      <c r="B4060" s="9" t="s">
+        <v>5586</v>
+      </c>
+      <c r="C4060" s="3">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4061" s="8" t="s">
+        <v>5587</v>
+      </c>
+      <c r="B4061" s="9" t="s">
+        <v>5588</v>
+      </c>
+      <c r="C4061" s="3">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4062" s="8" t="s">
+        <v>5589</v>
+      </c>
+      <c r="B4062" s="9" t="s">
+        <v>5590</v>
+      </c>
+      <c r="C4062" s="3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4063" s="8" t="s">
+        <v>5591</v>
+      </c>
+      <c r="B4063" s="9" t="s">
+        <v>5592</v>
+      </c>
+      <c r="C4063" s="3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4064" s="8" t="s">
+        <v>5593</v>
+      </c>
+      <c r="B4064" s="9" t="s">
+        <v>5594</v>
+      </c>
+      <c r="C4064" s="3">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4065" s="8" t="s">
+        <v>5595</v>
+      </c>
+      <c r="B4065" s="9" t="s">
+        <v>5596</v>
+      </c>
+      <c r="C4065" s="3">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4066" s="8" t="s">
+        <v>5597</v>
+      </c>
+      <c r="B4066" s="9" t="s">
+        <v>5598</v>
+      </c>
+      <c r="C4066" s="3">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4067" s="8" t="s">
+        <v>5599</v>
+      </c>
+      <c r="B4067" s="9" t="s">
+        <v>5600</v>
+      </c>
+      <c r="C4067" s="3">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4068" s="8" t="s">
+        <v>5601</v>
+      </c>
+      <c r="B4068" s="9" t="s">
+        <v>5602</v>
+      </c>
+      <c r="C4068" s="3">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4069" s="8" t="s">
+        <v>5603</v>
+      </c>
+      <c r="B4069" s="9" t="s">
+        <v>5604</v>
+      </c>
+      <c r="C4069" s="3">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4070" s="8" t="s">
+        <v>5605</v>
+      </c>
+      <c r="B4070" s="9" t="s">
+        <v>5606</v>
+      </c>
+      <c r="C4070" s="3">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4071" s="8" t="s">
+        <v>5607</v>
+      </c>
+      <c r="B4071" s="9" t="s">
+        <v>5608</v>
+      </c>
+      <c r="C4071" s="3">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4072" s="8" t="s">
+        <v>5609</v>
+      </c>
+      <c r="B4072" s="9" t="s">
+        <v>5610</v>
+      </c>
+      <c r="C4072" s="3">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4073" s="8" t="s">
+        <v>5611</v>
+      </c>
+      <c r="B4073" s="9" t="s">
+        <v>5612</v>
+      </c>
+      <c r="C4073" s="3">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4074" s="8" t="s">
+        <v>5613</v>
+      </c>
+      <c r="B4074" s="9" t="s">
+        <v>5614</v>
+      </c>
+      <c r="C4074" s="3">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4075" s="8" t="s">
+        <v>5615</v>
+      </c>
+      <c r="B4075" s="9" t="s">
+        <v>5616</v>
+      </c>
+      <c r="C4075" s="3">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4076" s="8" t="s">
+        <v>5617</v>
+      </c>
+      <c r="B4076" s="9" t="s">
+        <v>5618</v>
+      </c>
+      <c r="C4076" s="3">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4077" s="8" t="s">
+        <v>5619</v>
+      </c>
+      <c r="B4077" s="9" t="s">
+        <v>5620</v>
+      </c>
+      <c r="C4077" s="3">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4078" s="8" t="s">
+        <v>5621</v>
+      </c>
+      <c r="B4078" s="9" t="s">
+        <v>5622</v>
+      </c>
+      <c r="C4078" s="3">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4079" s="8" t="s">
+        <v>5623</v>
+      </c>
+      <c r="B4079" s="9" t="s">
+        <v>5624</v>
+      </c>
+      <c r="C4079" s="3">
+        <v>9258</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4080" s="8" t="s">
+        <v>5625</v>
+      </c>
+      <c r="B4080" s="9" t="s">
+        <v>5626</v>
+      </c>
+      <c r="C4080" s="3">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4081" s="8" t="s">
+        <v>5627</v>
+      </c>
+      <c r="B4081" s="9" t="s">
+        <v>5628</v>
+      </c>
+      <c r="C4081" s="3">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4082" s="8" t="s">
+        <v>5629</v>
+      </c>
+      <c r="B4082" s="9" t="s">
+        <v>5630</v>
+      </c>
+      <c r="C4082" s="3">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4083" s="8" t="s">
+        <v>5631</v>
+      </c>
+      <c r="B4083" s="9" t="s">
+        <v>5632</v>
+      </c>
+      <c r="C4083" s="3">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4084" s="8" t="s">
+        <v>5633</v>
+      </c>
+      <c r="B4084" s="9" t="s">
+        <v>5634</v>
+      </c>
+      <c r="C4084" s="3">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4085" s="8" t="s">
+        <v>5635</v>
+      </c>
+      <c r="B4085" s="9" t="s">
+        <v>5636</v>
+      </c>
+      <c r="C4085" s="3">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4086" s="8" t="s">
+        <v>5637</v>
+      </c>
+      <c r="B4086" s="9" t="s">
+        <v>5638</v>
+      </c>
+      <c r="C4086" s="3">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4087" s="8" t="s">
+        <v>5639</v>
+      </c>
+      <c r="B4087" s="9" t="s">
+        <v>5640</v>
+      </c>
+      <c r="C4087" s="3">
+        <v>10488</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4088" s="8" t="s">
+        <v>5641</v>
+      </c>
+      <c r="B4088" s="9" t="s">
+        <v>5642</v>
+      </c>
+      <c r="C4088" s="3">
+        <v>13488</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4089" s="8" t="s">
+        <v>5643</v>
+      </c>
+      <c r="B4089" s="9" t="s">
+        <v>5644</v>
+      </c>
+      <c r="C4089" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4090" s="8" t="s">
+        <v>5645</v>
+      </c>
+      <c r="B4090" s="9" t="s">
+        <v>5646</v>
+      </c>
+      <c r="C4090" s="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4091" s="8" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B4091" s="9" t="s">
+        <v>5648</v>
+      </c>
+      <c r="C4091" s="3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4092" s="8" t="s">
+        <v>5649</v>
+      </c>
+      <c r="B4092" s="9" t="s">
+        <v>5650</v>
+      </c>
+      <c r="C4092" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4093" s="8" t="s">
+        <v>5651</v>
+      </c>
+      <c r="B4093" s="9" t="s">
+        <v>5652</v>
+      </c>
+      <c r="C4093" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4094" s="8" t="s">
+        <v>5653</v>
+      </c>
+      <c r="B4094" s="9" t="s">
+        <v>5654</v>
+      </c>
+      <c r="C4094" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4095" s="8" t="s">
+        <v>5655</v>
+      </c>
+      <c r="B4095" s="9" t="s">
+        <v>5656</v>
+      </c>
+      <c r="C4095" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4096" s="8" t="s">
+        <v>5657</v>
+      </c>
+      <c r="B4096" s="9" t="s">
+        <v>5658</v>
+      </c>
+      <c r="C4096" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4097" s="8" t="s">
+        <v>5659</v>
+      </c>
+      <c r="B4097" s="9" t="s">
+        <v>5660</v>
+      </c>
+      <c r="C4097" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4098" s="8" t="s">
+        <v>5661</v>
+      </c>
+      <c r="B4098" s="9" t="s">
+        <v>5662</v>
+      </c>
+      <c r="C4098" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4099" s="8" t="s">
+        <v>5663</v>
+      </c>
+      <c r="B4099" s="9" t="s">
+        <v>5664</v>
+      </c>
+      <c r="C4099" s="3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4100" s="8" t="s">
+        <v>5665</v>
+      </c>
+      <c r="B4100" s="9" t="s">
+        <v>5666</v>
+      </c>
+      <c r="C4100" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4101" s="8" t="s">
+        <v>5667</v>
+      </c>
+      <c r="B4101" s="9" t="s">
+        <v>5668</v>
+      </c>
+      <c r="C4101" s="3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4102" s="8" t="s">
+        <v>5669</v>
+      </c>
+      <c r="B4102" s="9" t="s">
+        <v>5670</v>
+      </c>
+      <c r="C4102" s="3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4103" s="8" t="s">
+        <v>5671</v>
+      </c>
+      <c r="B4103" s="9" t="s">
+        <v>5672</v>
+      </c>
+      <c r="C4103" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4104" s="8" t="s">
+        <v>5673</v>
+      </c>
+      <c r="B4104" s="9" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C4104" s="3">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4105" s="8" t="s">
+        <v>5675</v>
+      </c>
+      <c r="B4105" s="9" t="s">
+        <v>5676</v>
+      </c>
+      <c r="C4105" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4106" s="8" t="s">
+        <v>5677</v>
+      </c>
+      <c r="B4106" s="9" t="s">
+        <v>5678</v>
+      </c>
+      <c r="C4106" s="3">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4107" s="8" t="s">
+        <v>5679</v>
+      </c>
+      <c r="B4107" s="9" t="s">
+        <v>5680</v>
+      </c>
+      <c r="C4107" s="3">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4108" s="8" t="s">
+        <v>5681</v>
+      </c>
+      <c r="B4108" s="9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="C4108" s="3">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4109" s="8" t="s">
+        <v>5683</v>
+      </c>
+      <c r="B4109" s="9" t="s">
+        <v>5684</v>
+      </c>
+      <c r="C4109" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4110" s="8" t="s">
+        <v>5685</v>
+      </c>
+      <c r="B4110" s="9" t="s">
+        <v>5686</v>
+      </c>
+      <c r="C4110" s="3">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4111" s="8" t="s">
+        <v>5687</v>
+      </c>
+      <c r="B4111" s="9" t="s">
+        <v>5688</v>
+      </c>
+      <c r="C4111" s="3">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4112" s="8" t="s">
+        <v>5689</v>
+      </c>
+      <c r="B4112" s="9" t="s">
+        <v>5690</v>
+      </c>
+      <c r="C4112" s="3">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4113" s="8" t="s">
+        <v>5691</v>
+      </c>
+      <c r="B4113" s="9" t="s">
+        <v>5692</v>
+      </c>
+      <c r="C4113" s="3">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4114" s="8" t="s">
+        <v>5693</v>
+      </c>
+      <c r="B4114" s="9" t="s">
+        <v>5694</v>
+      </c>
+      <c r="C4114" s="3">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4115" s="8" t="s">
+        <v>5695</v>
+      </c>
+      <c r="B4115" s="9" t="s">
+        <v>5696</v>
+      </c>
+      <c r="C4115" s="3">
+        <v>16060</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4116" s="8" t="s">
+        <v>5697</v>
+      </c>
+      <c r="B4116" s="9" t="s">
+        <v>5698</v>
+      </c>
+      <c r="C4116" s="3">
+        <v>17570</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4117" s="8" t="s">
+        <v>5699</v>
+      </c>
+      <c r="B4117" s="9" t="s">
+        <v>5700</v>
+      </c>
+      <c r="C4117" s="3">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4118" s="8" t="s">
+        <v>5701</v>
+      </c>
+      <c r="B4118" s="9" t="s">
+        <v>5702</v>
+      </c>
+      <c r="C4118" s="3">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4119" s="8" t="s">
+        <v>5703</v>
+      </c>
+      <c r="B4119" s="9" t="s">
+        <v>5704</v>
+      </c>
+      <c r="C4119" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4120" s="8" t="s">
+        <v>5705</v>
+      </c>
+      <c r="B4120" s="9" t="s">
+        <v>5706</v>
+      </c>
+      <c r="C4120" s="3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4121" s="8" t="s">
+        <v>5707</v>
+      </c>
+      <c r="B4121" s="9" t="s">
+        <v>5708</v>
+      </c>
+      <c r="C4121" s="3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4122" s="8" t="s">
+        <v>5709</v>
+      </c>
+      <c r="B4122" s="9" t="s">
+        <v>5710</v>
+      </c>
+      <c r="C4122" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4123" s="8" t="s">
+        <v>5711</v>
+      </c>
+      <c r="B4123" s="9" t="s">
+        <v>5712</v>
+      </c>
+      <c r="C4123" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4124" s="8" t="s">
+        <v>5713</v>
+      </c>
+      <c r="B4124" s="9" t="s">
+        <v>5714</v>
+      </c>
+      <c r="C4124" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4125" s="8" t="s">
+        <v>5715</v>
+      </c>
+      <c r="B4125" s="9" t="s">
+        <v>5716</v>
+      </c>
+      <c r="C4125" s="3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4126" s="8" t="s">
+        <v>5717</v>
+      </c>
+      <c r="B4126" s="9" t="s">
+        <v>5718</v>
+      </c>
+      <c r="C4126" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4127" s="8" t="s">
+        <v>5719</v>
+      </c>
+      <c r="B4127" s="9" t="s">
+        <v>5720</v>
+      </c>
+      <c r="C4127" s="3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4128" s="8" t="s">
+        <v>5721</v>
+      </c>
+      <c r="B4128" s="9" t="s">
+        <v>5722</v>
+      </c>
+      <c r="C4128" s="3">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4129" s="8" t="s">
+        <v>5723</v>
+      </c>
+      <c r="B4129" s="9" t="s">
+        <v>5724</v>
+      </c>
+      <c r="C4129" s="3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4130" s="8" t="s">
+        <v>5725</v>
+      </c>
+      <c r="B4130" s="9" t="s">
+        <v>5726</v>
+      </c>
+      <c r="C4130" s="3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4131" s="8" t="s">
+        <v>5727</v>
+      </c>
+      <c r="B4131" s="9" t="s">
+        <v>5728</v>
+      </c>
+      <c r="C4131" s="3">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4132" s="8" t="s">
+        <v>5729</v>
+      </c>
+      <c r="B4132" s="9" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C4132" s="3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4133" s="8" t="s">
+        <v>5731</v>
+      </c>
+      <c r="B4133" s="9" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C4133" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4134" s="8" t="s">
+        <v>5733</v>
+      </c>
+      <c r="B4134" s="9" t="s">
+        <v>5734</v>
+      </c>
+      <c r="C4134" s="3">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4135" s="8" t="s">
+        <v>5735</v>
+      </c>
+      <c r="B4135" s="9" t="s">
+        <v>5736</v>
+      </c>
+      <c r="C4135" s="3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4136" s="8" t="s">
+        <v>5737</v>
+      </c>
+      <c r="B4136" s="9" t="s">
+        <v>5738</v>
+      </c>
+      <c r="C4136" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4137" s="8" t="s">
+        <v>5739</v>
+      </c>
+      <c r="B4137" s="9" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C4137" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4138" s="8" t="s">
+        <v>5741</v>
+      </c>
+      <c r="B4138" s="9" t="s">
+        <v>5742</v>
+      </c>
+      <c r="C4138" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4139" s="8" t="s">
+        <v>5743</v>
+      </c>
+      <c r="B4139" s="9" t="s">
+        <v>5744</v>
+      </c>
+      <c r="C4139" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4140" s="8" t="s">
+        <v>5745</v>
+      </c>
+      <c r="B4140" s="9" t="s">
+        <v>5746</v>
+      </c>
+      <c r="C4140" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4141" s="8" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B4141" s="9" t="s">
+        <v>5748</v>
+      </c>
+      <c r="C4141" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4142" s="8" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B4142" s="9" t="s">
+        <v>5750</v>
+      </c>
+      <c r="C4142" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4143" s="8" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B4143" s="9" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C4143" s="3">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
